--- a/danh_sach_nv_theo_id_kho.xlsx
+++ b/danh_sach_nv_theo_id_kho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyennghi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyennghi/Downloads/telegram_bot_5s_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F146897A-623A-2241-834F-E74A5F69AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8064F6-94B5-154A-A06C-7A5A8C177F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>id_kho</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Kho Giao Hàng Nặng Hòa Xuân-Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Hà Tĩnh</t>
   </si>
 </sst>
 </file>
@@ -139,12 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -487,7 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>21095000</v>
       </c>
       <c r="B2" t="s">
@@ -498,7 +500,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>21521000</v>
       </c>
       <c r="B3" t="s">
@@ -509,7 +511,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>21386000</v>
       </c>
       <c r="B4" t="s">
@@ -520,7 +522,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>21483000</v>
       </c>
       <c r="B5" t="s">
@@ -531,7 +533,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>21162000</v>
       </c>
       <c r="B6" t="s">
@@ -542,7 +544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>21347000</v>
       </c>
       <c r="B7" t="s">
@@ -553,7 +555,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>21498000</v>
       </c>
       <c r="B8" t="s">
@@ -564,7 +566,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>21163000</v>
       </c>
       <c r="B9" t="s">
@@ -575,7 +577,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>22028000</v>
       </c>
       <c r="B10" t="s">
@@ -586,7 +588,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>22057000</v>
       </c>
       <c r="B11" t="s">
@@ -597,7 +599,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>22059000</v>
       </c>
       <c r="B12" t="s">
@@ -607,7 +609,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>21682000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/danh_sach_nv_theo_id_kho.xlsx
+++ b/danh_sach_nv_theo_id_kho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyennghi/Downloads/telegram_bot_5s_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8064F6-94B5-154A-A06C-7A5A8C177F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CDFEF-5C06-CC41-9142-2766AE6783DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>id_kho</t>
   </si>
@@ -77,22 +77,50 @@
   </si>
   <si>
     <t>Kho Giao Hàng Nặng Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Quảng Bình</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Huế</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đắk Nông</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Gia Lai</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Bình Định</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Bình Thuận</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Hoài Nhơn-Bình Định</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,12 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,171 +481,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>21095000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>21521000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>21386000</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>21483000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>21162000</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>21347000</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>21498000</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>21163000</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>22028000</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>22057000</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>22059000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>21682000</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>21283000</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>21086000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>21089000</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>21096000</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>21284000</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>21090000</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>21525000</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>21091000</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21087000</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21285000</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>21094000</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>22168000</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/danh_sach_nv_theo_id_kho.xlsx
+++ b/danh_sach_nv_theo_id_kho.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyennghi/Downloads/telegram_bot_5s_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CDFEF-5C06-CC41-9142-2766AE6783DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE518B-2CA4-2D49-B308-99A1BA1B6ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>id_kho</t>
   </si>
@@ -77,39 +90,6 @@
   </si>
   <si>
     <t>Kho Giao Hàng Nặng Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Quảng Bình</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Thanh Hóa</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Huế</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Đắk Lắk</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Đắk Nông</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Gia Lai</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Bình Định</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Bình Thuận</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Khánh Hòa</t>
   </si>
   <si>
     <t>Kho Giao Hàng Nặng Hoài Nhơn-Bình Định</t>
@@ -170,11 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,40 +460,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -522,10 +500,10 @@
       <c r="A2" s="1">
         <v>21095000</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -533,10 +511,10 @@
       <c r="A3" s="1">
         <v>21521000</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -544,10 +522,10 @@
       <c r="A4" s="1">
         <v>21386000</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -555,10 +533,10 @@
       <c r="A5" s="1">
         <v>21483000</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -566,10 +544,10 @@
       <c r="A6" s="1">
         <v>21162000</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -577,10 +555,10 @@
       <c r="A7" s="1">
         <v>21347000</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -588,10 +566,10 @@
       <c r="A8" s="1">
         <v>21498000</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -599,10 +577,10 @@
       <c r="A9" s="1">
         <v>21163000</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -610,10 +588,10 @@
       <c r="A10" s="1">
         <v>22028000</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -621,10 +599,10 @@
       <c r="A11" s="1">
         <v>22057000</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -632,10 +610,10 @@
       <c r="A12" s="1">
         <v>22059000</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -643,142 +621,21 @@
       <c r="A13" s="1">
         <v>21682000</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>21283000</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14">
+        <v>22168000</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>21086000</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>21089000</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>21096000</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>21284000</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>21090000</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>21525000</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>21091000</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21087000</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>21285000</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>21094000</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>22168000</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>

--- a/danh_sach_nv_theo_id_kho.xlsx
+++ b/danh_sach_nv_theo_id_kho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyennghi/Downloads/telegram_bot_5s_package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE518B-2CA4-2D49-B308-99A1BA1B6ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38CDB0-B91D-487E-87F0-FF314E517E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>id_kho</t>
   </si>
@@ -80,12 +78,6 @@
     <t>Kho Giao Hàng Nặng Ninh Thuận</t>
   </si>
   <si>
-    <t>Kho Giao Hàng Nặng Lagi-Bình Thuận</t>
-  </si>
-  <si>
-    <t>Kho Giao Hàng Nặng Tuy Phong-Bình Thuận</t>
-  </si>
-  <si>
     <t>Kho Giao Hàng Nặng Hòa Xuân-Đà Nẵng</t>
   </si>
   <si>
@@ -93,23 +85,55 @@
   </si>
   <si>
     <t>Kho Giao Hàng Nặng Hoài Nhơn-Bình Định</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Quảng Bình</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Huế</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Đắk Nông</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Gia Lai</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Bình Định</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Bình Thuận</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Tuy Phong_Bình Thuận</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Lagi_Bình Thuận</t>
+  </si>
+  <si>
+    <t>Kho Giao Hàng Nặng Khánh Hòa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,15 +170,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,9 +265,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +352,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,182 +545,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>21682000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>21095000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>21283000</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>21086000</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>21089000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>22059000</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>21096000</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>21386000</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>21483000</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>21284000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>21521000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>21386000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>21483000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>21090000</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>21525000</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>21091000</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>21162000</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>21087000</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>22168000</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>21285000</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>22057000</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>22028000</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21498000</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21094000</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>21163000</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>21347000</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>21498000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>21163000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>22028000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>22057000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>22059000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>21682000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>22168000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
